--- a/doc/Kodebok, NordicScir.xlsx
+++ b/doc/Kodebok, NordicScir.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="510" windowWidth="27495" windowHeight="15525"/>
+    <workbookView xWindow="630" yWindow="510" windowWidth="27495" windowHeight="15525" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Tarmfunksjon. Skjemaversjon 1.0" sheetId="1" r:id="rId1"/>
@@ -1705,7 +1705,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7274,7 +7277,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F450"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
